--- a/analysis/pre_gemini_data/participant220/task_hard.xlsx
+++ b/analysis/pre_gemini_data/participant220/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:BA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,267 +422,263 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>arg7</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>asign2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>assign3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>asssign1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>condstat</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>condstat2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>exteranal2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>litreal2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>loopbdoy2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>loopstat2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>loopstat3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methdocall6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methdocall8</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methocall10</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methocall12</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>methodcall13</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var13</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var14</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>var15</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -778,35 +762,33 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -828,34 +810,34 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>4</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
         <v>8</v>
@@ -867,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
         <v>1</v>
@@ -889,16 +871,16 @@
         <v>14</v>
       </c>
       <c r="AS3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
         <v>5</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -935,35 +917,33 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>252</v>
+      </c>
+      <c r="M4" t="n">
+        <v>140</v>
+      </c>
+      <c r="N4" t="n">
         <v>22</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" t="n">
-        <v>275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>141</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23</v>
       </c>
       <c r="O4" t="n">
         <v>24</v>
       </c>
       <c r="P4" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -985,34 +965,34 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="Y4" t="n">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="Z4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>37</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF4" t="n">
         <v>5</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH4" t="n">
         <v>10</v>
@@ -1024,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="AK4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL4" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AM4" t="n">
         <v>2</v>
@@ -1046,16 +1026,16 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT4" t="n">
         <v>6</v>
       </c>
       <c r="AU4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW4" t="n">
         <v>1</v>
@@ -1092,35 +1072,33 @@
       <c r="F5" t="n">
         <v>317.02</v>
       </c>
-      <c r="G5" t="n">
-        <v>1785.19</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>12763.54</v>
+        <v>9126.450000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>22893.84</v>
+        <v>22610.22</v>
       </c>
       <c r="J5" t="n">
-        <v>3219.92</v>
+        <v>3019.69</v>
       </c>
       <c r="K5" t="n">
-        <v>3503.66</v>
+        <v>3053.22</v>
       </c>
       <c r="L5" t="n">
-        <v>110973.02</v>
+        <v>102948.02</v>
       </c>
       <c r="M5" t="n">
-        <v>62819.6</v>
+        <v>62535.98</v>
       </c>
       <c r="N5" t="n">
-        <v>12463.89</v>
+        <v>12246.94</v>
       </c>
       <c r="O5" t="n">
         <v>11214.81</v>
       </c>
       <c r="P5" t="n">
-        <v>23191.93</v>
+        <v>22224.36</v>
       </c>
       <c r="Q5" t="n">
         <v>533.92</v>
@@ -1142,34 +1120,34 @@
         <v>450.43</v>
       </c>
       <c r="X5" t="n">
-        <v>95305.38</v>
+        <v>91267.94</v>
       </c>
       <c r="Y5" t="n">
-        <v>103698.51</v>
+        <v>99010.41</v>
       </c>
       <c r="Z5" t="n">
-        <v>7157.72</v>
+        <v>6957.49</v>
       </c>
       <c r="AA5" t="n">
         <v>18353.54</v>
       </c>
       <c r="AB5" t="n">
-        <v>2519.5</v>
+        <v>2119.03</v>
       </c>
       <c r="AC5" t="n">
         <v>717.4400000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>9392.99</v>
+        <v>8658.959999999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>2619.35</v>
+        <v>1017.77</v>
       </c>
       <c r="AF5" t="n">
         <v>5038.44</v>
       </c>
       <c r="AG5" t="n">
-        <v>917.61</v>
+        <v>800.86</v>
       </c>
       <c r="AH5" t="n">
         <v>6390.32</v>
@@ -1181,10 +1159,10 @@
         <v>417.13</v>
       </c>
       <c r="AK5" t="n">
-        <v>1935.52</v>
+        <v>1434.92</v>
       </c>
       <c r="AL5" t="n">
-        <v>110551.91</v>
+        <v>72877.64999999999</v>
       </c>
       <c r="AM5" t="n">
         <v>750.84</v>
@@ -1203,16 +1181,16 @@
         <v>9743.65</v>
       </c>
       <c r="AS5" t="n">
-        <v>13514.16</v>
+        <v>12663.37</v>
       </c>
       <c r="AT5" t="n">
         <v>3336.78</v>
       </c>
       <c r="AU5" t="n">
-        <v>1951.95</v>
+        <v>1618.26</v>
       </c>
       <c r="AV5" t="n">
-        <v>1785.23</v>
+        <v>1585</v>
       </c>
       <c r="AW5" t="n">
         <v>183.61</v>
@@ -1238,153 +1216,151 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D6" t="n">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="E6" t="n">
-        <v>1.09</v>
+        <v>1.65</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.46</v>
-      </c>
+        <v>0.13</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>3.31</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.94</v>
+        <v>8.92</v>
       </c>
       <c r="J6" t="n">
-        <v>0.84</v>
+        <v>1.19</v>
       </c>
       <c r="K6" t="n">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
       <c r="L6" t="n">
-        <v>28.81</v>
+        <v>40.59</v>
       </c>
       <c r="M6" t="n">
-        <v>16.31</v>
+        <v>24.66</v>
       </c>
       <c r="N6" t="n">
-        <v>3.24</v>
+        <v>4.83</v>
       </c>
       <c r="O6" t="n">
-        <v>2.91</v>
+        <v>4.42</v>
       </c>
       <c r="P6" t="n">
-        <v>6.02</v>
+        <v>8.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="S6" t="n">
         <v>39.08</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2.39</v>
+        <v>3.63</v>
       </c>
       <c r="V6" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="W6" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="X6" t="n">
-        <v>24.74</v>
+        <v>35.99</v>
       </c>
       <c r="Y6" t="n">
-        <v>26.92</v>
+        <v>39.04</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.77</v>
+        <v>7.24</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.65</v>
+        <v>0.84</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.44</v>
+        <v>3.41</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.31</v>
+        <v>1.99</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.66</v>
+        <v>2.52</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.43</v>
+        <v>0.66</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AL6" t="n">
-        <v>28.7</v>
+        <v>28.74</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.81</v>
+        <v>2.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.53</v>
+        <v>3.84</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.51</v>
+        <v>4.99</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.87</v>
+        <v>1.32</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.21</v>
+        <v>1.84</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.51</v>
+        <v>2.3</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.15</v>
+        <v>1.74</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.43</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7">
@@ -1406,35 +1382,33 @@
       <c r="F7" t="n">
         <v>317.02</v>
       </c>
-      <c r="G7" t="n">
-        <v>892.59</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>580.16</v>
+        <v>570.4</v>
       </c>
       <c r="I7" t="n">
-        <v>416.25</v>
+        <v>418.71</v>
       </c>
       <c r="J7" t="n">
-        <v>357.77</v>
+        <v>377.46</v>
       </c>
       <c r="K7" t="n">
-        <v>350.37</v>
+        <v>381.65</v>
       </c>
       <c r="L7" t="n">
-        <v>403.54</v>
+        <v>408.52</v>
       </c>
       <c r="M7" t="n">
-        <v>445.53</v>
+        <v>446.69</v>
       </c>
       <c r="N7" t="n">
-        <v>541.91</v>
+        <v>556.6799999999999</v>
       </c>
       <c r="O7" t="n">
         <v>467.28</v>
       </c>
       <c r="P7" t="n">
-        <v>594.66</v>
+        <v>617.34</v>
       </c>
       <c r="Q7" t="n">
         <v>533.92</v>
@@ -1456,34 +1430,34 @@
         <v>450.43</v>
       </c>
       <c r="X7" t="n">
-        <v>419.85</v>
+        <v>422.54</v>
       </c>
       <c r="Y7" t="n">
-        <v>406.66</v>
+        <v>410.83</v>
       </c>
       <c r="Z7" t="n">
-        <v>447.36</v>
+        <v>463.83</v>
       </c>
       <c r="AA7" t="n">
         <v>496.04</v>
       </c>
       <c r="AB7" t="n">
-        <v>314.94</v>
+        <v>353.17</v>
       </c>
       <c r="AC7" t="n">
         <v>358.72</v>
       </c>
       <c r="AD7" t="n">
-        <v>670.9299999999999</v>
+        <v>666.0700000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>873.12</v>
+        <v>508.88</v>
       </c>
       <c r="AF7" t="n">
         <v>1007.69</v>
       </c>
       <c r="AG7" t="n">
-        <v>305.87</v>
+        <v>400.43</v>
       </c>
       <c r="AH7" t="n">
         <v>639.03</v>
@@ -1495,10 +1469,10 @@
         <v>417.13</v>
       </c>
       <c r="AK7" t="n">
-        <v>387.1</v>
+        <v>478.31</v>
       </c>
       <c r="AL7" t="n">
-        <v>381.21</v>
+        <v>383.57</v>
       </c>
       <c r="AM7" t="n">
         <v>375.42</v>
@@ -1517,16 +1491,16 @@
         <v>573.16</v>
       </c>
       <c r="AS7" t="n">
-        <v>844.64</v>
+        <v>904.53</v>
       </c>
       <c r="AT7" t="n">
         <v>556.13</v>
       </c>
       <c r="AU7" t="n">
-        <v>390.39</v>
+        <v>404.57</v>
       </c>
       <c r="AV7" t="n">
-        <v>595.08</v>
+        <v>792.5</v>
       </c>
       <c r="AW7" t="n">
         <v>183.61</v>
@@ -1563,9 +1537,7 @@
       <c r="F8" t="n">
         <v>317.02</v>
       </c>
-      <c r="G8" t="n">
-        <v>1601.59</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>250.38</v>
       </c>
@@ -1756,61 +1728,6 @@
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
